--- a/myapp/files/9_MethodComparePercent/Scenario 354.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 354.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>242</v>
+        <v>8554</v>
       </c>
       <c r="F2" t="n">
-        <v>0.271093785006945</v>
+        <v>1.27544858394491</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.75438596491228</v>
+        <v>1.30293159609121</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>891</v>
+        <v>15338</v>
       </c>
       <c r="F3" t="n">
-        <v>0.998118026616481</v>
+        <v>2.28698040455309</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.75438596491228</v>
+        <v>1.62866449511401</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>682</v>
+        <v>13642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.763991575928664</v>
+        <v>2.03409744940104</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.75438596491228</v>
+        <v>1.95439739413681</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>98</v>
+        <v>12937</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109781780705292</v>
+        <v>1.92897806061437</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.75438596491228</v>
+        <v>1.95439739413681</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>1092</v>
+        <v>11577</v>
       </c>
       <c r="F6" t="n">
-        <v>1.22328269928754</v>
+        <v>1.72619455884151</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.75438596491228</v>
+        <v>1.30293159609121</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>10795</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.60959404532211</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.62866449511401</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>31029</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.62659505625751</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.93159609120521</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1440</v>
+        <v>37079</v>
       </c>
       <c r="F9" t="n">
-        <v>1.61312004301653</v>
+        <v>5.52868342811474</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
-        <v>1.75438596491228</v>
+        <v>5.21172638436482</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>8018</v>
+        <v>34030</v>
       </c>
       <c r="F10" t="n">
-        <v>8.98194201729623</v>
+        <v>5.0740607098019</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>5.40540540540541</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>7.01754385964912</v>
+        <v>5.86319218241042</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>5843</v>
+        <v>19502</v>
       </c>
       <c r="F11" t="n">
-        <v>6.54545861899001</v>
+        <v>2.90785577321647</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>5.26315789473684</v>
+        <v>3.58306188925081</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>357</v>
+        <v>13914</v>
       </c>
       <c r="F12" t="n">
-        <v>0.399919343997849</v>
+        <v>2.07465414975562</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.75438596491228</v>
+        <v>1.95439739413681</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5315</v>
+        <v>44060</v>
       </c>
       <c r="F13" t="n">
-        <v>5.95398126988395</v>
+        <v>6.56958903537677</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1011,10 +1011,10 @@
         <v>5.40540540540541</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>5.26315789473684</v>
+        <v>5.53745928338762</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>7998</v>
+        <v>70712</v>
       </c>
       <c r="F14" t="n">
-        <v>8.95953757225434</v>
+        <v>10.5435492480609</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -1049,10 +1049,10 @@
         <v>10.8108108108108</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>7.01754385964912</v>
+        <v>8.79478827361563</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>5366</v>
+        <v>64040</v>
       </c>
       <c r="F15" t="n">
-        <v>6.01111260474078</v>
+        <v>9.54871724524577</v>
       </c>
       <c r="G15" t="n">
         <v>7</v>
@@ -1087,10 +1087,10 @@
         <v>9.45945945945946</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J15" t="n">
-        <v>12.280701754386</v>
+        <v>10.0977198697068</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>8234</v>
+        <v>35563</v>
       </c>
       <c r="F16" t="n">
-        <v>9.22391002374871</v>
+        <v>5.3026394658444</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>10.5263157894737</v>
+        <v>6.18892508143322</v>
       </c>
       <c r="K16" t="n">
         <v>7</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7819</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.16585602967796</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1163,10 +1163,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.30293159609121</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>3080</v>
+        <v>24642</v>
       </c>
       <c r="F18" t="n">
-        <v>3.45028453645203</v>
+        <v>3.67425812550509</v>
       </c>
       <c r="G18" t="n">
         <v>5</v>
@@ -1201,16 +1201,16 @@
         <v>6.75675675675676</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>1.75438596491228</v>
+        <v>3.90879478827362</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35135135135135</v>
+        <v>2.7027027027027</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>7003</v>
+        <v>48002</v>
       </c>
       <c r="F19" t="n">
-        <v>7.84491643141999</v>
+        <v>7.15736297948606</v>
       </c>
       <c r="G19" t="n">
         <v>12</v>
@@ -1239,16 +1239,16 @@
         <v>16.2162162162162</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J19" t="n">
-        <v>5.26315789473684</v>
+        <v>8.14332247557003</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>10.8108108108108</v>
+        <v>9.45945945945946</v>
       </c>
     </row>
     <row r="20">
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>7340</v>
+        <v>49612</v>
       </c>
       <c r="F20" t="n">
-        <v>8.22243133037595</v>
+        <v>7.39742286026129</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
@@ -1277,16 +1277,16 @@
         <v>22.972972972973</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J20" t="n">
-        <v>5.26315789473684</v>
+        <v>8.79478827361563</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>5.40540540540541</v>
+        <v>6.75675675675676</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2263</v>
+        <v>27296</v>
       </c>
       <c r="F21" t="n">
-        <v>2.53506295649057</v>
+        <v>4.0699841649942</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,16 +1315,16 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>1.75438596491228</v>
+        <v>4.23452768729642</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.05405405405405</v>
+        <v>2.7027027027027</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>5840</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.870776213495242</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.977198697068404</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>10368</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.54592598998607</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.977198697068404</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>5428</v>
+        <v>18901</v>
       </c>
       <c r="F24" t="n">
-        <v>6.08056638437066</v>
+        <v>2.81824335809479</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
-        <v>5.26315789473684</v>
+        <v>3.25732899022801</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>8652</v>
+        <v>27610</v>
       </c>
       <c r="F25" t="n">
-        <v>9.69216292512434</v>
+        <v>4.11680329702117</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1467,16 +1467,16 @@
         <v>5.40540540540541</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>8.7719298245614</v>
+        <v>4.56026058631922</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>5.40540540540541</v>
+        <v>4.05405405405405</v>
       </c>
     </row>
     <row r="26">
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>9926</v>
+        <v>27804</v>
       </c>
       <c r="F26" t="n">
-        <v>11.1193260742931</v>
+        <v>4.145729767127</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
-        <v>12.280701754386</v>
+        <v>3.90879478827362</v>
       </c>
       <c r="K26" t="n">
         <v>6</v>
